--- a/Alpha/data_collection.xlsx
+++ b/Alpha/data_collection.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20386"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E40F51F9-18FE-410E-9477-4062E1CE336D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A11BA9C8-92F2-4B35-A6BB-3C07B5D13F5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +447,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <f t="shared" ref="A6:A69" si="1">A5+10</f>
+        <f t="shared" ref="A6:A12" si="1">A5+10</f>
         <v>30</v>
       </c>
       <c r="B6" s="2">
